--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="172">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -41,9 +44,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -74,445 +74,463 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.916+/-0.0</t>
-  </si>
-  <si>
-    <t>0.881</t>
-  </si>
-  <si>
-    <t>0.897+/-0.008</t>
+    <t>0.913+/-0.0</t>
+  </si>
+  <si>
+    <t>0.883</t>
+  </si>
+  <si>
+    <t>0.893+/-0.007</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>0.938+/-0.009</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.005+/-0.002</t>
+  </si>
+  <si>
+    <t>0.901+/-0.001</t>
+  </si>
+  <si>
+    <t>0.9+/-0.0</t>
+  </si>
+  <si>
+    <t>0.889</t>
+  </si>
+  <si>
+    <t>0.908+/-0.001</t>
+  </si>
+  <si>
+    <t>0.906+/-0.007</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.893+/-0.001</t>
+  </si>
+  <si>
+    <t>0.892+/-0.009</t>
+  </si>
+  <si>
+    <t>0.872</t>
+  </si>
+  <si>
+    <t>0.6+/-0.06</t>
+  </si>
+  <si>
+    <t>0.67+/-0.008</t>
+  </si>
+  <si>
+    <t>0.669+/-0.0</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.618+/-0.007</t>
+  </si>
+  <si>
+    <t>0.618+/-0.011</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>0.889+/-0.002</t>
+  </si>
+  <si>
+    <t>0.889+/-0.011</t>
+  </si>
+  <si>
+    <t>0.884</t>
+  </si>
+  <si>
+    <t>0.014+/-0.002</t>
+  </si>
+  <si>
+    <t>0.883+/-0.001</t>
+  </si>
+  <si>
+    <t>0.883+/-0.0</t>
+  </si>
+  <si>
+    <t>0.884+/-0.001</t>
+  </si>
+  <si>
+    <t>0.884+/-0.007</t>
   </si>
   <si>
     <t>0.824</t>
   </si>
   <si>
-    <t>0.941+/-0.009</t>
-  </si>
-  <si>
-    <t>0.874</t>
-  </si>
-  <si>
-    <t>0.004+/-0.002</t>
-  </si>
-  <si>
-    <t>0.9+/-0.001</t>
-  </si>
-  <si>
-    <t>0.899+/-0.0</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>0.907+/-0.001</t>
-  </si>
-  <si>
-    <t>0.905+/-0.007</t>
-  </si>
-  <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>0.891+/-0.001</t>
-  </si>
-  <si>
-    <t>0.891+/-0.01</t>
+    <t>0.882+/-0.001</t>
+  </si>
+  <si>
+    <t>0.882+/-0.01</t>
   </si>
   <si>
     <t>0.869</t>
   </si>
   <si>
-    <t>0.337+/-0.014</t>
-  </si>
-  <si>
-    <t>0.677+/-0.01</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.625+/-0.009</t>
-  </si>
-  <si>
-    <t>0.624+/-0.014</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.888+/-0.002</t>
-  </si>
-  <si>
-    <t>0.887+/-0.009</t>
-  </si>
-  <si>
-    <t>0.886</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.882+/-0.001</t>
-  </si>
-  <si>
-    <t>0.882+/-0.0</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>0.884+/-0.001</t>
-  </si>
-  <si>
-    <t>0.884+/-0.007</t>
-  </si>
-  <si>
-    <t>0.826</t>
-  </si>
-  <si>
-    <t>0.881+/-0.002</t>
-  </si>
-  <si>
-    <t>0.881+/-0.01</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.961+/-0.004</t>
+    <t>0.019+/-0.006</t>
+  </si>
+  <si>
+    <t>0.964+/-0.004</t>
+  </si>
+  <si>
+    <t>0.941+/-0.0</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>0.962+/-0.005</t>
+  </si>
+  <si>
+    <t>0.94+/-0.008</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>0.966+/-0.007</t>
+  </si>
+  <si>
+    <t>0.943+/-0.009</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>7.572+/-1.153</t>
+  </si>
+  <si>
+    <t>0.979+/-0.002</t>
   </si>
   <si>
     <t>0.942+/-0.0</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
-    <t>0.96+/-0.007</t>
-  </si>
-  <si>
-    <t>0.941+/-0.01</t>
-  </si>
-  <si>
-    <t>0.897</t>
-  </si>
-  <si>
-    <t>0.962+/-0.009</t>
-  </si>
-  <si>
-    <t>0.943+/-0.011</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>3.313+/-0.823</t>
-  </si>
-  <si>
-    <t>0.979+/-0.001</t>
-  </si>
-  <si>
-    <t>0.947+/-0.0</t>
-  </si>
-  <si>
-    <t>0.937</t>
-  </si>
-  <si>
-    <t>0.976+/-0.002</t>
-  </si>
-  <si>
-    <t>0.944+/-0.008</t>
-  </si>
-  <si>
-    <t>0.906</t>
-  </si>
-  <si>
-    <t>0.982+/-0.002</t>
-  </si>
-  <si>
-    <t>0.95+/-0.006</t>
-  </si>
-  <si>
-    <t>0.932</t>
-  </si>
-  <si>
-    <t>0.177+/-0.01</t>
-  </si>
-  <si>
-    <t>0.974+/-0.002</t>
-  </si>
-  <si>
-    <t>0.941+/-0.0</t>
-  </si>
-  <si>
-    <t>0.936</t>
-  </si>
-  <si>
-    <t>0.974+/-0.005</t>
-  </si>
-  <si>
-    <t>0.94+/-0.007</t>
-  </si>
-  <si>
-    <t>0.91</t>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>0.976+/-0.003</t>
+  </si>
+  <si>
+    <t>0.937+/-0.014</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>0.982+/-0.003</t>
+  </si>
+  <si>
+    <t>0.948+/-0.006</t>
+  </si>
+  <si>
+    <t>0.22+/-0.025</t>
+  </si>
+  <si>
+    <t>0.975+/-0.002</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>0.977+/-0.004</t>
+  </si>
+  <si>
+    <t>0.943+/-0.005</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>0.973+/-0.006</t>
+  </si>
+  <si>
+    <t>0.938+/-0.007</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>0.255+/-0.014</t>
+  </si>
+  <si>
+    <t>0.943+/-0.001</t>
+  </si>
+  <si>
+    <t>0.929+/-0.0</t>
+  </si>
+  <si>
+    <t>0.921</t>
+  </si>
+  <si>
+    <t>0.942+/-0.001</t>
+  </si>
+  <si>
+    <t>0.93+/-0.012</t>
+  </si>
+  <si>
+    <t>0.944+/-0.001</t>
+  </si>
+  <si>
+    <t>0.928+/-0.008</t>
+  </si>
+  <si>
+    <t>0.902</t>
+  </si>
+  <si>
+    <t>30.729+/-3.656</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.2+/-0.245</t>
+  </si>
+  <si>
+    <t>0.4+/-0.49</t>
+  </si>
+  <si>
+    <t>0.909+/-0.0</t>
+  </si>
+  <si>
+    <t>0.839</t>
+  </si>
+  <si>
+    <t>0.852+/-0.009</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.99+/-0.004</t>
+  </si>
+  <si>
+    <t>0.873</t>
+  </si>
+  <si>
+    <t>0.004+/-0.001</t>
+  </si>
+  <si>
+    <t>0.964+/-0.001</t>
+  </si>
+  <si>
+    <t>0.964+/-0.0</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>0.945+/-0.001</t>
+  </si>
+  <si>
+    <t>0.945+/-0.006</t>
+  </si>
+  <si>
+    <t>0.833</t>
+  </si>
+  <si>
+    <t>0.985+/-0.0</t>
+  </si>
+  <si>
+    <t>0.985+/-0.005</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>0.574+/-0.047</t>
+  </si>
+  <si>
+    <t>0.885+/-0.002</t>
+  </si>
+  <si>
+    <t>0.884+/-0.0</t>
+  </si>
+  <si>
+    <t>0.868+/-0.003</t>
+  </si>
+  <si>
+    <t>0.867+/-0.01</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.909+/-0.005</t>
+  </si>
+  <si>
+    <t>0.906+/-0.018</t>
+  </si>
+  <si>
+    <t>0.896</t>
+  </si>
+  <si>
+    <t>0.013+/-0.002</t>
+  </si>
+  <si>
+    <t>0.71+/-0.003</t>
+  </si>
+  <si>
+    <t>0.709+/-0.0</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.676+/-0.002</t>
+  </si>
+  <si>
+    <t>0.675+/-0.01</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.807+/-0.007</t>
+  </si>
+  <si>
+    <t>0.806+/-0.018</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.017+/-0.006</t>
+  </si>
+  <si>
+    <t>0.985+/-0.002</t>
+  </si>
+  <si>
+    <t>0.979+/-0.0</t>
+  </si>
+  <si>
+    <t>0.983+/-0.003</t>
   </si>
   <si>
     <t>0.975+/-0.005</t>
   </si>
   <si>
-    <t>0.942+/-0.009</t>
-  </si>
-  <si>
-    <t>0.924</t>
-  </si>
-  <si>
-    <t>0.2+/-0.008</t>
-  </si>
-  <si>
-    <t>0.943+/-0.001</t>
-  </si>
-  <si>
-    <t>0.93+/-0.0</t>
-  </si>
-  <si>
-    <t>0.921</t>
-  </si>
-  <si>
-    <t>0.941+/-0.002</t>
-  </si>
-  <si>
-    <t>0.931+/-0.012</t>
-  </si>
-  <si>
-    <t>0.894</t>
-  </si>
-  <si>
-    <t>0.945+/-0.001</t>
-  </si>
-  <si>
-    <t>0.929+/-0.008</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>23.17+/-3.809</t>
-  </si>
-  <si>
-    <t>0.904+/-0.0</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>0.846+/-0.004</t>
-  </si>
-  <si>
-    <t>0.554</t>
-  </si>
-  <si>
-    <t>0.988+/-0.004</t>
-  </si>
-  <si>
-    <t>0.871</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.967+/-0.001</t>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>0.988+/-0.005</t>
+  </si>
+  <si>
+    <t>0.983+/-0.009</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>7.944+/-1.745</t>
+  </si>
+  <si>
+    <t>0.996+/-0.001</t>
+  </si>
+  <si>
+    <t>0.983+/-0.0</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>0.982+/-0.004</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.984+/-0.005</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>0.306+/-0.027</t>
+  </si>
+  <si>
+    <t>0.997+/-0.0</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>0.998+/-0.001</t>
+  </si>
+  <si>
+    <t>0.981+/-0.004</t>
+  </si>
+  <si>
+    <t>0.997+/-0.001</t>
+  </si>
+  <si>
+    <t>0.985+/-0.003</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>0.391+/-0.038</t>
+  </si>
+  <si>
+    <t>0.973+/-0.001</t>
   </si>
   <si>
     <t>0.967+/-0.0</t>
   </si>
   <si>
-    <t>0.958</t>
-  </si>
-  <si>
-    <t>0.949+/-0.001</t>
-  </si>
-  <si>
-    <t>0.949+/-0.006</t>
-  </si>
-  <si>
-    <t>0.841</t>
-  </si>
-  <si>
-    <t>0.987+/-0.0</t>
-  </si>
-  <si>
-    <t>0.986+/-0.003</t>
-  </si>
-  <si>
-    <t>0.973</t>
-  </si>
-  <si>
-    <t>0.796+/-0.047</t>
-  </si>
-  <si>
-    <t>0.874+/-0.002</t>
-  </si>
-  <si>
-    <t>0.873+/-0.0</t>
-  </si>
-  <si>
-    <t>0.859</t>
-  </si>
-  <si>
-    <t>0.858+/-0.004</t>
-  </si>
-  <si>
-    <t>0.858+/-0.013</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.896+/-0.003</t>
-  </si>
-  <si>
-    <t>0.895+/-0.014</t>
-  </si>
-  <si>
-    <t>0.885</t>
-  </si>
-  <si>
-    <t>0.017+/-0.002</t>
-  </si>
-  <si>
-    <t>0.71+/-0.002</t>
-  </si>
-  <si>
-    <t>0.709+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.681+/-0.002</t>
-  </si>
-  <si>
-    <t>0.68+/-0.01</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.791+/-0.006</t>
-  </si>
-  <si>
-    <t>0.79+/-0.013</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>0.018+/-0.005</t>
-  </si>
-  <si>
-    <t>0.985+/-0.002</t>
-  </si>
-  <si>
-    <t>0.979+/-0.0</t>
-  </si>
-  <si>
-    <t>0.986+/-0.004</t>
-  </si>
-  <si>
-    <t>0.978+/-0.006</t>
-  </si>
-  <si>
-    <t>0.916</t>
-  </si>
-  <si>
-    <t>0.985+/-0.005</t>
-  </si>
-  <si>
-    <t>0.979+/-0.006</t>
-  </si>
-  <si>
-    <t>0.951</t>
-  </si>
-  <si>
-    <t>7.431+/-1.894</t>
-  </si>
-  <si>
-    <t>0.996+/-0.0</t>
-  </si>
-  <si>
-    <t>0.984+/-0.0</t>
-  </si>
-  <si>
-    <t>0.978</t>
-  </si>
-  <si>
-    <t>0.995+/-0.0</t>
-  </si>
-  <si>
-    <t>0.982+/-0.004</t>
-  </si>
-  <si>
-    <t>0.944</t>
-  </si>
-  <si>
-    <t>0.996+/-0.001</t>
-  </si>
-  <si>
-    <t>0.947</t>
-  </si>
-  <si>
-    <t>0.28+/-0.015</t>
-  </si>
-  <si>
-    <t>0.997+/-0.001</t>
-  </si>
-  <si>
-    <t>0.985+/-0.0</t>
-  </si>
-  <si>
-    <t>0.976</t>
-  </si>
-  <si>
-    <t>0.984+/-0.004</t>
-  </si>
-  <si>
-    <t>0.929</t>
-  </si>
-  <si>
-    <t>0.998+/-0.001</t>
-  </si>
-  <si>
-    <t>0.36+/-0.027</t>
-  </si>
-  <si>
-    <t>0.975+/-0.001</t>
-  </si>
-  <si>
-    <t>0.968+/-0.0</t>
-  </si>
-  <si>
-    <t>0.961+/-0.001</t>
-  </si>
-  <si>
-    <t>0.951+/-0.007</t>
-  </si>
-  <si>
-    <t>0.832</t>
-  </si>
-  <si>
-    <t>0.99+/-0.001</t>
-  </si>
-  <si>
-    <t>0.918</t>
-  </si>
-  <si>
-    <t>157.676+/-13.752</t>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>0.96+/-0.001</t>
+  </si>
+  <si>
+    <t>0.951+/-0.006</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.988+/-0.001</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>39.458+/-5.888</t>
   </si>
 </sst>
 </file>
@@ -913,28 +931,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -942,31 +960,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -974,31 +992,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4">
-        <v>0.6190476190476191</v>
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1006,31 +1024,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1038,31 +1056,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1070,31 +1088,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1102,31 +1120,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1134,31 +1152,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1166,31 +1184,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10">
-        <v>0.6190476190476191</v>
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1198,31 +1216,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1275,28 +1293,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>155</v>
+      </c>
+      <c r="J2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1304,31 +1322,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1336,31 +1354,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4">
-        <v>0.8015873015873016</v>
+        <v>156</v>
+      </c>
+      <c r="J4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1368,31 +1386,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="J5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1400,31 +1418,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="J6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1432,31 +1450,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="J7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1464,31 +1482,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
+        <v>159</v>
+      </c>
+      <c r="J8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1496,31 +1514,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
+        <v>160</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1528,31 +1546,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10">
-        <v>0.8015873015873016</v>
+        <v>161</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1560,31 +1578,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="J11" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kisshin\Desktop\Mestrado Ricardo\Thesis\Msc_thesis\Data\Modeling Stage\Results\R_Gonz\Non temporal models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC090B35-AA5B-48E2-82D9-832F2C79DE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_fail" sheetId="1" r:id="rId1"/>
     <sheet name="final_gifted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -536,8 +542,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,11 +606,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -646,7 +660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,9 +692,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,6 +744,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -887,14 +937,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -955,7 +1013,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,7 +1045,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1019,7 +1077,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1109,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1141,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1115,7 +1173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1147,7 +1205,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1179,7 +1237,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1211,7 +1269,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1249,14 +1307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1375,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1407,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +1439,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1471,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1445,7 +1503,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1477,7 +1535,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1509,7 +1567,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1541,7 +1599,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1573,7 +1631,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
